--- a/Translations/en-bg-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-bg-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Запознаване с групата на храните на плодове и зеленчуци. Сложността на задачите ескалира с нивото на напредване: В началото акцентът е върху плодовете и зеленчуците сами, след това се въвежда игра с техните цветове.</t>
+          <t>Търсете плодовете и зеленчуците! Нарежете ги, за да спечелите точки и да научите за тяхната хранителна стойност и пъстра палитра, колко трябва да консумирате дневно и умни начини да ги добавите към диетата си.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Вашата задача е да нарязвате само плодовете, които виждате.</t>
+          <t>Вашата задача е да нарежете плодовете!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Плодовете са сред храните, които се препоръчват да консумирате ежедневно. Като цяло, 2-3 плода на ден са вашата крайна цел. Изборът на плод като закуска, в училище или следобед, ще ви помогне да постигнете ежедневната си цел. За целта дайте приоритет на плодове: първо яжте плодовете, а след това всичко друго!</t>
+          <t>Плодовете са сред храните, които трябва да консумирате ежедневно. Като цяло 2-3 плода на ден е крайната ви цел. Избирането на плод като лека закуска, в училище или следобед, ще ви помогне да постигнете ежедневната си цел. За да направите това, дайте приоритет на плодовете: първо изяжте плодовете, а след това всичко останало!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Вашата задача е да нарязвате само зеленчуците, които виждате.</t>
+          <t>Вашата задача е да нарежете зеленчуците!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Зеленчуците, като плодовете, също се препоръчват да се консумират ежедневно. Те могат да се сервират като салата или дори като основно ястие. За да постигнете ежедневната си цел, придружавайте основните си ястия с зеленчуци!</t>
+          <t>Зеленчуците, както и плодовете, трябва да се консумират ежедневно. Могат да се сервират като салата и дори като основно ястие. За да постигнете ежедневната си цел, придружете основните си хранения със зеленчуци!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Вашата задача е да нарязвате само F&amp;V с червен цвят.</t>
+          <t>Вашата задача е да нарежете плодовете и зеленчуците с червен цвят!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Запознаване с групата с храни от млечни продукти. Сложността на задачата се увеличава с всяко ниво: Първо, фокусът е върху идентифицирането и нарязването на общи млечни продукти; След това учащите преминават към нарязване на изображението, което показва препоръчителната ежедневна консумация на млечни продукти; И накрая, те идентифицират и нарязват изображението, което подчертава ключовото хранително вещество, което се намира в мандри, т.е. калций.</t>
+          <t>Търсете млечните продукти! Нарежете ги, за да спечелите точки и научете за основните им хранителни вещества, колко трябва да консумирате дневно, размера на порцията им и умните начини да ги добавите към вашата диета.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Вашата задача е да нарязвате само млечните продукти, които виждате.</t>
+          <t>Вашата задача е да нарежете млечните продукти!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Направете мандри ежедневен навик! Включете ги в началото на деня си и изградете здравословни навици, които продължават!</t>
+          <t>Превърнете млечните продукти в ежедневен навик! Включете ги в началото на деня си и изградете здравословни навици, които са трайни!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Млечните продукти като мляко, кисело мляко и сирене са храни, препоръчани за ежедневна консумация, тъй като те осигуряват ключови хранителни вещества за вашия растеж и развитие.</t>
+          <t>Млечните продукти като мляко, кисело мляко и сирене са храни, които трябва да консумирате ежедневно, защото те осигуряват ключови хранителни вещества за вашия растеж и развитие.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Вашата задача е да нарязвате само препоръчителната ежедневна консумация на млечни продукти, които виждате.</t>
+          <t>Вашата задача е да нарежете препоръчителната дневна консумация на млечни продукти!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Вървете с млечни продукти всеки ден!</t>
+          <t>Яжте млечни продукти всеки ден!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>За да постигнете целта на 3-4 порции млечни продукти на ден, опитайте да включите чаша мляко със закуска, кисело мляко като закуска или сирене с обяд или вечеря. Направете го навик - сдвоете ястията или закуските си с вариант за млечни продукти, за да останете силни и здрави!</t>
+          <t>За да постигнете целта от 3-4 порции млечни продукти на ден, опитайте да включите чаша мляко със закуската, кисело мляко като лека закуска или сирене с вашия обяд или вечеря. Превърнете го в навик – съчетавайте вашите ястия или закуски с вариант на млечни продукти, за да останете силни и здрави!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Вашата задача е да определите какво се брои като една част от млечния продукт. Изберете всички елементи, които представляват стандартна млечна част.</t>
+          <t>Вашата задача е да нарежете това, което се счита за една порция млечен продукт.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Вашата задача е да нарязвате само ключовото хранително вещество, което се намира в млечните продукти. Обърнете внимание, че: CA: Калций, FE: Желязо.</t>
+          <t>Вашата задача е да нарежете основното хранително вещество, намиращо се в млечните продукти! Имайте предвид, че: Ca: калций, Fe: желязо, vE: витамин Е.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Млечните продукти са един от най -добрите източници на калций (CA), който помага за изграждането на силни кости и зъби.</t>
+          <t>Млечните продукти са един от най-добрите източници на калций, който помага за изграждането на здрави кости и зъби.</t>
         </is>
       </c>
     </row>
